--- a/export/files/okr/2018/OKR_Q1&Q2.xlsx
+++ b/export/files/okr/2018/OKR_Q1&Q2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <r>
       <rPr>
@@ -186,6 +186,9 @@
   <si>
     <t xml:space="preserve">O3：小组氛围提升
 </t>
+  </si>
+  <si>
+    <t>O1：活动业务稳定性保障</t>
   </si>
   <si>
     <t>KR：第三方活动提前引入1个或以上</t>
@@ -264,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -287,13 +290,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -303,12 +401,24 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
@@ -333,19 +443,22 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -353,6 +466,15 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -382,6 +504,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1473,16 +1596,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="45.1562" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.125" style="1" customWidth="1"/>
-    <col min="4" max="256" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5781" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.1562" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="256" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1">
@@ -1491,217 +1616,277 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="20.25" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="11">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="20.25" customHeight="1">
-      <c r="A8" t="s" s="5">
+      <c r="A8" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="A11" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="20.25" customHeight="1">
-      <c r="A13" t="s" s="5">
+      <c r="A13" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="A14" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="A15" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="10">
+      <c r="B15" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="B16" t="s" s="10">
+      <c r="B16" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" ht="20.25" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" ht="20.25" customHeight="1">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="A19" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="A20" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="B20" t="s" s="10">
+      <c r="B20" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="A21" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B21" t="s" s="10">
+      <c r="B21" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="A22" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" ht="20.25" customHeight="1">
-      <c r="A24" t="s" s="5">
+      <c r="A24" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="A25" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" ht="20.25" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" ht="17.25" customHeight="1">
-      <c r="A27" t="s" s="5">
+      <c r="A27" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" ht="17.25" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="A28" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="B28" t="s" s="10">
+      <c r="B28" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="A29" t="s" s="11">
         <v>31</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="A30" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="B30" t="s" s="14">
+      <c r="B30" t="s" s="17">
         <v>33</v>
       </c>
-      <c r="C30" s="14"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1717,123 +1902,151 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="57.0312" style="15" customWidth="1"/>
-    <col min="3" max="3" width="57.0312" style="15" customWidth="1"/>
-    <col min="4" max="256" width="14" style="15" customWidth="1"/>
+    <col min="1" max="1" width="45.1562" style="20" customWidth="1"/>
+    <col min="2" max="2" width="57" style="20" customWidth="1"/>
+    <col min="3" max="3" width="57" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14" style="20" customWidth="1"/>
+    <col min="5" max="5" width="14" style="20" customWidth="1"/>
+    <col min="6" max="256" width="14" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+      <c r="A1" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="11">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="11">
         <v>36</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A7" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="10">
+      <c r="B9" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="10">
+      <c r="B10" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" t="s" s="5">
+      <c r="A12" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="B13" t="s" s="10">
+      <c r="B13" t="s" s="14">
         <v>39</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="A14" t="s" s="11">
         <v>40</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -1849,86 +2062,111 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.1719" style="18" customWidth="1"/>
-    <col min="2" max="2" width="56.875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="56.875" style="18" customWidth="1"/>
-    <col min="4" max="256" width="14" style="18" customWidth="1"/>
+    <col min="1" max="1" width="45.1562" style="23" customWidth="1"/>
+    <col min="2" max="2" width="56.8672" style="23" customWidth="1"/>
+    <col min="3" max="3" width="56.8672" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14" style="23" customWidth="1"/>
+    <col min="5" max="5" width="14" style="23" customWidth="1"/>
+    <col min="6" max="256" width="14" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="19">
+      <c r="A1" t="s" s="24">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="17">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="14">
+      <c r="A4" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" t="s" s="17">
         <v>41</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="14">
+      <c r="A5" t="s" s="17">
         <v>42</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A7" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="14">
+      <c r="A8" t="s" s="17">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="14">
+      <c r="B8" t="s" s="17">
         <v>44</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="14">
+      <c r="A9" t="s" s="17">
         <v>45</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -1944,116 +2182,142 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.1719" style="20" customWidth="1"/>
-    <col min="2" max="2" width="56.875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="56.875" style="20" customWidth="1"/>
-    <col min="4" max="256" width="14" style="20" customWidth="1"/>
+    <col min="1" max="1" width="45.1562" style="28" customWidth="1"/>
+    <col min="2" max="2" width="56.8672" style="28" customWidth="1"/>
+    <col min="3" max="3" width="56.8672" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14" style="28" customWidth="1"/>
+    <col min="5" max="5" width="14" style="28" customWidth="1"/>
+    <col min="6" max="256" width="14" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="19">
+      <c r="A1" t="s" s="24">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="9">
         <v>46</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="17">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="14">
+      <c r="A4" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" t="s" s="17">
         <v>41</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="14">
+      <c r="A5" t="s" s="17">
         <v>47</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="20" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A7" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="14">
+      <c r="A8" t="s" s="17">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="14">
+      <c r="B8" t="s" s="17">
         <v>39</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="14">
+      <c r="A9" t="s" s="17">
         <v>48</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="B10" t="s" s="14">
+      <c r="B10" t="s" s="17">
         <v>33</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="21.7" customHeight="1">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="16">
         <v>50</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="A13" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="10">
+      <c r="B13" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2069,151 +2333,178 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.1719" style="21" customWidth="1"/>
-    <col min="2" max="2" width="56.875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="56.875" style="21" customWidth="1"/>
-    <col min="4" max="256" width="14" style="21" customWidth="1"/>
+    <col min="1" max="1" width="45.1562" style="29" customWidth="1"/>
+    <col min="2" max="2" width="56.8672" style="29" customWidth="1"/>
+    <col min="3" max="3" width="56.8672" style="29" customWidth="1"/>
+    <col min="4" max="4" width="14" style="29" customWidth="1"/>
+    <col min="5" max="5" width="14" style="29" customWidth="1"/>
+    <col min="6" max="256" width="14" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="19">
+      <c r="A1" t="s" s="24">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="4"/>
+      <c r="A2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="17">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="14">
+      <c r="A4" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" t="s" s="17">
         <v>35</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="14">
-        <v>47</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="A9" t="s" s="11">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="B10" s="6"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
-    </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" ht="21.7" customHeight="1">
-      <c r="A12" t="s" s="5">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="21.7" customHeight="1">
+      <c r="A11" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>39</v>
-      </c>
+      <c r="A13" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="A14" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" ht="17" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" ht="17" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" ht="20.6" customHeight="1">
-      <c r="A17" t="s" s="12">
+      <c r="A15" s="11"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="20.6" customHeight="1">
+      <c r="A16" t="s" s="16">
         <v>50</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="B16" s="17"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B18" t="s" s="10">
+      <c r="B17" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
@@ -2229,130 +2520,151 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="45.1719" style="22" customWidth="1"/>
-    <col min="2" max="2" width="56.875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="56.875" style="22" customWidth="1"/>
-    <col min="4" max="256" width="14" style="22" customWidth="1"/>
+    <col min="1" max="1" width="45.1562" style="30" customWidth="1"/>
+    <col min="2" max="2" width="56.8672" style="30" customWidth="1"/>
+    <col min="3" max="3" width="56.8672" style="30" customWidth="1"/>
+    <col min="4" max="4" width="14" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14" style="30" customWidth="1"/>
+    <col min="6" max="256" width="14" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="19">
+      <c r="A1" t="s" s="24">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="4"/>
+      <c r="A2" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="17">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="14">
+      <c r="A4" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" t="s" s="17">
         <v>35</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="14">
-        <v>47</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" t="s" s="5">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="A9" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="B10" s="6"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6"/>
-    </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" ht="21.7" customHeight="1">
-      <c r="A12" t="s" s="5">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="21.7" customHeight="1">
+      <c r="A11" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>39</v>
-      </c>
+      <c r="A13" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="17" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" ht="17" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="A14" t="s" s="11">
         <v>49</v>
       </c>
-      <c r="B15" t="s" s="14">
+      <c r="B14" t="s" s="17">
         <v>33</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
